--- a/Appendix_individualsCtvaluesandevaluation.xlsx
+++ b/Appendix_individualsCtvaluesandevaluation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Surfdrive\Models_and_Scripts\TransmissionExperiment\TransmissionEstimation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D222DD-3895-4795-A605-FE9C24B4926C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="6990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="for publication" sheetId="1" r:id="rId1"/>
@@ -162,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -396,15 +402,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,28 +430,37 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -483,37 +489,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -526,12 +501,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,7 +551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,9 +584,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,6 +636,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -816,15 +828,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:W240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC228" sqref="AC228"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,40 +854,40 @@
     <row r="1" spans="2:23" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="38"/>
       <c r="V1" s="43" t="s">
         <v>42</v>
       </c>
       <c r="W1" s="43"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -932,57 +944,57 @@
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="24">
         <v>811</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29">
-        <v>36</v>
-      </c>
-      <c r="H3" s="29">
-        <v>36</v>
-      </c>
-      <c r="I3" s="30">
+      <c r="G3" s="26">
+        <v>36</v>
+      </c>
+      <c r="H3" s="26">
+        <v>36</v>
+      </c>
+      <c r="I3" s="27">
         <v>27.25</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="27">
         <v>23.96</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="27">
         <v>16.89</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="27">
         <v>21.41</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="7">
@@ -1016,11 +1028,11 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="34" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -1074,13 +1086,13 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="32">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="29">
         <v>812</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="7">
@@ -1116,11 +1128,11 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="7">
@@ -1156,11 +1168,11 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="34" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="15" t="s">
@@ -1214,13 +1226,13 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="32">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="29">
         <v>813</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="7">
@@ -1256,11 +1268,11 @@
       <c r="W9" s="20"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="7">
@@ -1296,11 +1308,11 @@
       <c r="W10" s="20"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="34" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -1354,13 +1366,13 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="32">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="29">
         <v>814</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="7">
@@ -1396,11 +1408,11 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="7">
@@ -1436,11 +1448,11 @@
       <c r="W13" s="20"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="34" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -1494,13 +1506,13 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="32">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="29">
         <v>815</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="7">
@@ -1536,11 +1548,11 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="7">
@@ -1576,11 +1588,11 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="34" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -1634,13 +1646,13 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="32">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="29">
         <v>816</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="7">
@@ -1676,11 +1688,11 @@
       <c r="W18" s="20"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="7">
@@ -1716,11 +1728,11 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="34" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="15" t="s">
@@ -1774,13 +1786,13 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="32">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="29">
         <v>819</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="7">
@@ -1816,11 +1828,11 @@
       <c r="W21" s="20"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="7">
@@ -1856,11 +1868,11 @@
       <c r="W22" s="20"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="34" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="15" t="s">
@@ -1914,13 +1926,13 @@
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="32">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="29">
         <v>820</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="16">
@@ -1960,11 +1972,11 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="7">
@@ -2004,11 +2016,11 @@
       <c r="W25" s="20"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="34" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="19" t="s">
@@ -2062,15 +2074,15 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="32">
+      <c r="D27" s="46"/>
+      <c r="E27" s="29">
         <v>831</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="7">
@@ -2106,11 +2118,11 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="7">
@@ -2146,11 +2158,11 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="34" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="15" t="s">
@@ -2204,13 +2216,13 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="32">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="29">
         <v>832</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="7">
@@ -2246,11 +2258,11 @@
       <c r="W30" s="20"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G31" s="7">
@@ -2286,11 +2298,11 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="34" t="s">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -2344,13 +2356,13 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="32">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="29">
         <v>833</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="7">
@@ -2388,11 +2400,11 @@
       <c r="W33" s="20"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="7">
@@ -2430,11 +2442,11 @@
       <c r="W34" s="20"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="34" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G35" s="15" t="s">
@@ -2488,13 +2500,13 @@
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="32">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="29">
         <v>834</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="7">
@@ -2532,11 +2544,11 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="7">
@@ -2574,11 +2586,11 @@
       <c r="W37" s="20"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="34" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="15" t="s">
@@ -2632,13 +2644,13 @@
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="32">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="29">
         <v>835</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G39" s="7">
@@ -2674,11 +2686,11 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33" t="s">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="7">
@@ -2714,11 +2726,11 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="34" t="s">
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G41" s="15" t="s">
@@ -2772,13 +2784,13 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="32">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="29">
         <v>836</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G42" s="7">
@@ -2812,11 +2824,11 @@
       <c r="W42" s="20"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33" t="s">
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G43" s="7">
@@ -2850,11 +2862,11 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="34" t="s">
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G44" s="15" t="s">
@@ -2908,13 +2920,13 @@
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="32">
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="29">
         <v>838</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G45" s="16">
@@ -2948,11 +2960,11 @@
       <c r="W45" s="20"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33" t="s">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="7">
@@ -2986,11 +2998,11 @@
       <c r="W46" s="20"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="34" t="s">
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="19" t="s">
@@ -3044,13 +3056,13 @@
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="32">
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="29">
         <v>840</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="13">
@@ -3084,11 +3096,11 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33" t="s">
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="7">
@@ -3122,9 +3134,9 @@
       <c r="W49" s="20"/>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="4"/>
       <c r="F50" s="21" t="s">
         <v>29</v>
@@ -3180,17 +3192,17 @@
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="24" t="s">
+      <c r="B51" s="46"/>
+      <c r="C51" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="29">
         <v>817</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G51" s="7">
@@ -3232,11 +3244,11 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33" t="s">
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="7">
@@ -3278,11 +3290,11 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="34" t="s">
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G53" s="7" t="s">
@@ -3336,13 +3348,13 @@
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="32">
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="29">
         <v>818</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G54" s="7">
@@ -3382,11 +3394,11 @@
       <c r="W54" s="20"/>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="33" t="s">
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G55" s="7">
@@ -3426,11 +3438,11 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="34" t="s">
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G56" s="7" t="s">
@@ -3484,13 +3496,13 @@
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="32">
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="29">
         <v>821</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G57" s="7">
@@ -3536,11 +3548,11 @@
       <c r="W57" s="20"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33" t="s">
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G58" s="7">
@@ -3586,11 +3598,11 @@
       <c r="W58" s="20"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="34" t="s">
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -3644,13 +3656,13 @@
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="32">
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="29">
         <v>822</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F60" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G60" s="7">
@@ -3692,11 +3704,11 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="33" t="s">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G61" s="7">
@@ -3738,11 +3750,11 @@
       <c r="W61" s="20"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="34" t="s">
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G62" s="7" t="s">
@@ -3796,13 +3808,13 @@
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="32">
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="29">
         <v>823</v>
       </c>
-      <c r="F63" s="33" t="s">
+      <c r="F63" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G63" s="7">
@@ -3844,11 +3856,11 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="33" t="s">
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G64" s="7">
@@ -3890,11 +3902,11 @@
       <c r="W64" s="20"/>
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="34" t="s">
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G65" s="7" t="s">
@@ -3948,13 +3960,13 @@
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="32">
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="29">
         <v>824</v>
       </c>
-      <c r="F66" s="33" t="s">
+      <c r="F66" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G66" s="7">
@@ -3996,11 +4008,11 @@
       <c r="W66" s="20"/>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="33" t="s">
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G67" s="7">
@@ -4042,11 +4054,11 @@
       <c r="W67" s="20"/>
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="34" t="s">
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G68" s="7" t="s">
@@ -4100,13 +4112,13 @@
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="32">
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="29">
         <v>825</v>
       </c>
-      <c r="F69" s="33" t="s">
+      <c r="F69" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G69" s="7">
@@ -4146,11 +4158,11 @@
       <c r="W69" s="20"/>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33" t="s">
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G70" s="7">
@@ -4190,11 +4202,11 @@
       <c r="W70" s="20"/>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="34" t="s">
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G71" s="7" t="s">
@@ -4248,13 +4260,13 @@
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="32">
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="29">
         <v>826</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G72" s="7">
@@ -4294,11 +4306,11 @@
       <c r="W72" s="20"/>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33" t="s">
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G73" s="7">
@@ -4338,11 +4350,11 @@
       <c r="W73" s="20"/>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="34" t="s">
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G74" s="7" t="s">
@@ -4396,13 +4408,13 @@
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="32">
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="29">
         <v>827</v>
       </c>
-      <c r="F75" s="33" t="s">
+      <c r="F75" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G75" s="7">
@@ -4444,11 +4456,11 @@
       <c r="W75" s="20"/>
     </row>
     <row r="76" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33" t="s">
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G76" s="7">
@@ -4490,11 +4502,11 @@
       <c r="W76" s="20"/>
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="34" t="s">
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G77" s="7" t="s">
@@ -4548,13 +4560,13 @@
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="32">
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="29">
         <v>828</v>
       </c>
-      <c r="F78" s="33" t="s">
+      <c r="F78" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G78" s="7">
@@ -4598,11 +4610,11 @@
       <c r="W78" s="20"/>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="33" t="s">
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G79" s="7">
@@ -4646,11 +4658,11 @@
       <c r="W79" s="20"/>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="34" t="s">
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G80" s="7" t="s">
@@ -4704,13 +4716,13 @@
       </c>
     </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="32">
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="29">
         <v>829</v>
       </c>
-      <c r="F81" s="33" t="s">
+      <c r="F81" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G81" s="7">
@@ -4748,11 +4760,11 @@
       <c r="W81" s="20"/>
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="33" t="s">
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G82" s="7">
@@ -4790,11 +4802,11 @@
       <c r="W82" s="20"/>
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="34" t="s">
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G83" s="7" t="s">
@@ -4848,13 +4860,13 @@
       </c>
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="32">
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="29">
         <v>830</v>
       </c>
-      <c r="F84" s="33" t="s">
+      <c r="F84" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G84" s="7">
@@ -4894,11 +4906,11 @@
       <c r="W84" s="20"/>
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="33" t="s">
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G85" s="7">
@@ -4938,11 +4950,11 @@
       <c r="W85" s="20"/>
     </row>
     <row r="86" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="34" t="s">
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -4996,15 +5008,15 @@
       </c>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B87" s="25"/>
-      <c r="C87" s="25" t="s">
+      <c r="B87" s="46"/>
+      <c r="C87" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="32">
+      <c r="D87" s="46"/>
+      <c r="E87" s="29">
         <v>841</v>
       </c>
-      <c r="F87" s="33" t="s">
+      <c r="F87" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G87" s="7">
@@ -5044,11 +5056,11 @@
       <c r="W87" s="20"/>
     </row>
     <row r="88" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="33" t="s">
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G88" s="7">
@@ -5088,11 +5100,11 @@
       <c r="W88" s="20"/>
     </row>
     <row r="89" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="34" t="s">
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G89" s="7" t="s">
@@ -5146,13 +5158,13 @@
       </c>
     </row>
     <row r="90" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="32">
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="29">
         <v>842</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="F90" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G90" s="7">
@@ -5194,11 +5206,11 @@
       <c r="W90" s="20"/>
     </row>
     <row r="91" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="33" t="s">
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G91" s="7">
@@ -5240,11 +5252,11 @@
       <c r="W91" s="20"/>
     </row>
     <row r="92" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="34" t="s">
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G92" s="7" t="s">
@@ -5298,13 +5310,13 @@
       </c>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="32">
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="29">
         <v>843</v>
       </c>
-      <c r="F93" s="33" t="s">
+      <c r="F93" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G93" s="7">
@@ -5346,11 +5358,11 @@
       <c r="W93" s="20"/>
     </row>
     <row r="94" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="33" t="s">
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G94" s="7">
@@ -5392,11 +5404,11 @@
       <c r="W94" s="20"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="34" t="s">
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G95" s="7" t="s">
@@ -5450,13 +5462,13 @@
       </c>
     </row>
     <row r="96" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="32">
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="29">
         <v>844</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="F96" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G96" s="7">
@@ -5496,11 +5508,11 @@
       <c r="W96" s="20"/>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="33" t="s">
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G97" s="7">
@@ -5540,11 +5552,11 @@
       <c r="W97" s="20"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="34" t="s">
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G98" s="7" t="s">
@@ -5598,13 +5610,13 @@
       </c>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="32">
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="29">
         <v>845</v>
       </c>
-      <c r="F99" s="33" t="s">
+      <c r="F99" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G99" s="7">
@@ -5650,11 +5662,11 @@
       <c r="W99" s="20"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="33" t="s">
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G100" s="7">
@@ -5700,11 +5712,11 @@
       <c r="W100" s="20"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="34" t="s">
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G101" s="7" t="s">
@@ -5758,13 +5770,13 @@
       </c>
     </row>
     <row r="102" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="32">
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="29">
         <v>846</v>
       </c>
-      <c r="F102" s="33" t="s">
+      <c r="F102" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G102" s="7">
@@ -5804,11 +5816,11 @@
       <c r="W102" s="20"/>
     </row>
     <row r="103" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="33" t="s">
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G103" s="7">
@@ -5848,11 +5860,11 @@
       <c r="W103" s="20"/>
     </row>
     <row r="104" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="34" t="s">
+      <c r="B104" s="46"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G104" s="7" t="s">
@@ -5906,13 +5918,13 @@
       </c>
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="32">
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="29">
         <v>847</v>
       </c>
-      <c r="F105" s="33" t="s">
+      <c r="F105" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G105" s="7">
@@ -5952,11 +5964,11 @@
       <c r="W105" s="20"/>
     </row>
     <row r="106" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="33" t="s">
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G106" s="7">
@@ -5996,11 +6008,11 @@
       <c r="W106" s="20"/>
     </row>
     <row r="107" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="34" t="s">
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G107" s="7" t="s">
@@ -6054,13 +6066,13 @@
       </c>
     </row>
     <row r="108" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="32">
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="29">
         <v>848</v>
       </c>
-      <c r="F108" s="33" t="s">
+      <c r="F108" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G108" s="7">
@@ -6098,11 +6110,11 @@
       <c r="W108" s="20"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="33" t="s">
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G109" s="7">
@@ -6140,11 +6152,11 @@
       <c r="W109" s="20"/>
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="34" t="s">
+      <c r="B110" s="46"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G110" s="7" t="s">
@@ -6198,13 +6210,13 @@
       </c>
     </row>
     <row r="111" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="32">
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="29">
         <v>849</v>
       </c>
-      <c r="F111" s="33" t="s">
+      <c r="F111" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G111" s="7">
@@ -6246,11 +6258,11 @@
       <c r="W111" s="20"/>
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="33" t="s">
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G112" s="7">
@@ -6292,26 +6304,26 @@
       <c r="W112" s="20"/>
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
       <c r="E113" s="4"/>
       <c r="F113" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G113" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="I113" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J113" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="K113" s="35" t="s">
+      <c r="G113" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J113" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113" s="32" t="s">
         <v>35</v>
       </c>
       <c r="L113" s="22" t="s">
@@ -6350,73 +6362,73 @@
       </c>
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B114" s="24" t="s">
+      <c r="B114" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D114" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="27">
+      <c r="E114" s="24">
         <v>7311</v>
       </c>
-      <c r="F114" s="28" t="s">
+      <c r="F114" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="36">
-        <v>36</v>
-      </c>
-      <c r="H114" s="30">
+      <c r="G114" s="33">
+        <v>36</v>
+      </c>
+      <c r="H114" s="27">
         <v>29.68</v>
       </c>
-      <c r="I114" s="30">
+      <c r="I114" s="27">
         <v>30.61</v>
       </c>
-      <c r="J114" s="30">
+      <c r="J114" s="27">
         <v>25.58</v>
       </c>
-      <c r="K114" s="30">
+      <c r="K114" s="27">
         <v>25.99</v>
       </c>
-      <c r="L114" s="30">
+      <c r="L114" s="27">
         <v>25.54</v>
       </c>
-      <c r="M114" s="30">
+      <c r="M114" s="27">
         <v>27.83</v>
       </c>
-      <c r="N114" s="37">
+      <c r="N114" s="34">
         <v>34.68</v>
       </c>
-      <c r="O114" s="29">
-        <v>36</v>
-      </c>
-      <c r="P114" s="29">
-        <v>36</v>
-      </c>
-      <c r="Q114" s="29">
-        <v>36</v>
-      </c>
-      <c r="R114" s="29">
-        <v>36</v>
-      </c>
-      <c r="S114" s="29">
-        <v>36</v>
-      </c>
-      <c r="T114" s="29">
-        <v>36</v>
-      </c>
-      <c r="U114" s="29"/>
-      <c r="V114" s="28"/>
-      <c r="W114" s="28"/>
+      <c r="O114" s="26">
+        <v>36</v>
+      </c>
+      <c r="P114" s="26">
+        <v>36</v>
+      </c>
+      <c r="Q114" s="26">
+        <v>36</v>
+      </c>
+      <c r="R114" s="26">
+        <v>36</v>
+      </c>
+      <c r="S114" s="26">
+        <v>36</v>
+      </c>
+      <c r="T114" s="26">
+        <v>36</v>
+      </c>
+      <c r="U114" s="26"/>
+      <c r="V114" s="25"/>
+      <c r="W114" s="25"/>
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="33" t="s">
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G115" s="7">
@@ -6462,15 +6474,15 @@
         <v>36</v>
       </c>
       <c r="U115" s="7"/>
-      <c r="V115" s="33"/>
-      <c r="W115" s="33"/>
+      <c r="V115" s="30"/>
+      <c r="W115" s="30"/>
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="34" t="s">
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G116" s="7" t="s">
@@ -6524,13 +6536,13 @@
       </c>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="32">
+      <c r="B117" s="46"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="29">
         <v>7312</v>
       </c>
-      <c r="F117" s="33" t="s">
+      <c r="F117" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G117" s="7">
@@ -6580,11 +6592,11 @@
       <c r="W117" s="12"/>
     </row>
     <row r="118" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="33" t="s">
+      <c r="B118" s="46"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G118" s="7">
@@ -6634,11 +6646,11 @@
       <c r="W118" s="12"/>
     </row>
     <row r="119" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="34" t="s">
+      <c r="B119" s="46"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G119" s="7" t="s">
@@ -6692,13 +6704,13 @@
       </c>
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="32">
+      <c r="B120" s="46"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="29">
         <v>7313</v>
       </c>
-      <c r="F120" s="33" t="s">
+      <c r="F120" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G120" s="7">
@@ -6748,11 +6760,11 @@
       <c r="W120" s="12"/>
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="33" t="s">
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G121" s="7">
@@ -6802,11 +6814,11 @@
       <c r="W121" s="12"/>
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="34" t="s">
+      <c r="B122" s="46"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G122" s="7" t="s">
@@ -6860,13 +6872,13 @@
       </c>
     </row>
     <row r="123" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="32">
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="29">
         <v>7314</v>
       </c>
-      <c r="F123" s="33" t="s">
+      <c r="F123" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G123" s="7">
@@ -6916,11 +6928,11 @@
       <c r="W123" s="12"/>
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="33" t="s">
+      <c r="B124" s="46"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G124" s="7">
@@ -6970,11 +6982,11 @@
       <c r="W124" s="12"/>
     </row>
     <row r="125" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="34" t="s">
+      <c r="B125" s="46"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G125" s="7" t="s">
@@ -7028,13 +7040,13 @@
       </c>
     </row>
     <row r="126" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="32">
+      <c r="B126" s="46"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="29">
         <v>7315</v>
       </c>
-      <c r="F126" s="33" t="s">
+      <c r="F126" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G126" s="7">
@@ -7084,11 +7096,11 @@
       <c r="W126" s="12"/>
     </row>
     <row r="127" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="33" t="s">
+      <c r="B127" s="46"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G127" s="7">
@@ -7138,11 +7150,11 @@
       <c r="W127" s="12"/>
     </row>
     <row r="128" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="34" t="s">
+      <c r="B128" s="46"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G128" s="7" t="s">
@@ -7196,13 +7208,13 @@
       </c>
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="32">
+      <c r="B129" s="46"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="29">
         <v>7316</v>
       </c>
-      <c r="F129" s="33" t="s">
+      <c r="F129" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G129" s="7">
@@ -7252,11 +7264,11 @@
       <c r="W129" s="12"/>
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="33" t="s">
+      <c r="B130" s="46"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G130" s="7">
@@ -7306,11 +7318,11 @@
       <c r="W130" s="12"/>
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="34" t="s">
+      <c r="B131" s="46"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G131" s="7" t="s">
@@ -7364,13 +7376,13 @@
       </c>
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="32">
+      <c r="B132" s="46"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="29">
         <v>7317</v>
       </c>
-      <c r="F132" s="33" t="s">
+      <c r="F132" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G132" s="7">
@@ -7420,11 +7432,11 @@
       <c r="W132" s="12"/>
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="33" t="s">
+      <c r="B133" s="46"/>
+      <c r="C133" s="46"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G133" s="7">
@@ -7474,11 +7486,11 @@
       <c r="W133" s="12"/>
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="34" t="s">
+      <c r="B134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G134" s="7" t="s">
@@ -7532,13 +7544,13 @@
       </c>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="32">
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="29">
         <v>7318</v>
       </c>
-      <c r="F135" s="33" t="s">
+      <c r="F135" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G135" s="7">
@@ -7588,11 +7600,11 @@
       <c r="W135" s="12"/>
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="33" t="s">
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G136" s="7">
@@ -7642,54 +7654,54 @@
       <c r="W136" s="12"/>
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B137" s="25"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="34" t="s">
+      <c r="B137" s="46"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T137" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U137" s="7"/>
       <c r="V137" s="12">
@@ -7700,13 +7712,13 @@
       </c>
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B138" s="25"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="32">
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="29">
         <v>7319</v>
       </c>
-      <c r="F138" s="33" t="s">
+      <c r="F138" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="7">
@@ -7756,11 +7768,11 @@
       <c r="W138" s="12"/>
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B139" s="25"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="33" t="s">
+      <c r="B139" s="46"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G139" s="7">
@@ -7810,11 +7822,11 @@
       <c r="W139" s="12"/>
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="34" t="s">
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G140" s="7" t="s">
@@ -7868,13 +7880,13 @@
       </c>
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="32">
+      <c r="B141" s="46"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="29">
         <v>7320</v>
       </c>
-      <c r="F141" s="33" t="s">
+      <c r="F141" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G141" s="7">
@@ -7924,11 +7936,11 @@
       <c r="W141" s="12"/>
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="33" t="s">
+      <c r="B142" s="46"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G142" s="7">
@@ -7978,11 +7990,11 @@
       <c r="W142" s="12"/>
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="34" t="s">
+      <c r="B143" s="46"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G143" s="7" t="s">
@@ -8036,15 +8048,15 @@
       </c>
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B144" s="25"/>
-      <c r="C144" s="25" t="s">
+      <c r="B144" s="46"/>
+      <c r="C144" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D144" s="25"/>
-      <c r="E144" s="32">
+      <c r="D144" s="46"/>
+      <c r="E144" s="29">
         <v>7331</v>
       </c>
-      <c r="F144" s="33" t="s">
+      <c r="F144" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G144" s="7">
@@ -8094,11 +8106,11 @@
       <c r="W144" s="12"/>
     </row>
     <row r="145" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B145" s="25"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="33" t="s">
+      <c r="B145" s="46"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G145" s="7">
@@ -8148,11 +8160,11 @@
       <c r="W145" s="12"/>
     </row>
     <row r="146" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B146" s="25"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="34" t="s">
+      <c r="B146" s="46"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G146" s="7" t="s">
@@ -8206,13 +8218,13 @@
       </c>
     </row>
     <row r="147" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="32">
+      <c r="B147" s="46"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="46"/>
+      <c r="E147" s="29">
         <v>7332</v>
       </c>
-      <c r="F147" s="33" t="s">
+      <c r="F147" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G147" s="7">
@@ -8262,11 +8274,11 @@
       <c r="W147" s="12"/>
     </row>
     <row r="148" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="33" t="s">
+      <c r="B148" s="46"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G148" s="7">
@@ -8316,11 +8328,11 @@
       <c r="W148" s="12"/>
     </row>
     <row r="149" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="34" t="s">
+      <c r="B149" s="46"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G149" s="7" t="s">
@@ -8374,13 +8386,13 @@
       </c>
     </row>
     <row r="150" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B150" s="25"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="32">
+      <c r="B150" s="46"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="29">
         <v>7333</v>
       </c>
-      <c r="F150" s="33" t="s">
+      <c r="F150" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G150" s="7">
@@ -8430,11 +8442,11 @@
       <c r="W150" s="12"/>
     </row>
     <row r="151" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B151" s="25"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="33" t="s">
+      <c r="B151" s="46"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G151" s="7">
@@ -8484,11 +8496,11 @@
       <c r="W151" s="12"/>
     </row>
     <row r="152" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B152" s="25"/>
-      <c r="C152" s="25"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="34" t="s">
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G152" s="7" t="s">
@@ -8542,13 +8554,13 @@
       </c>
     </row>
     <row r="153" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="32">
+      <c r="B153" s="46"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="29">
         <v>7334</v>
       </c>
-      <c r="F153" s="33" t="s">
+      <c r="F153" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G153" s="7">
@@ -8598,11 +8610,11 @@
       <c r="W153" s="12"/>
     </row>
     <row r="154" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B154" s="25"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="33" t="s">
+      <c r="B154" s="46"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G154" s="7">
@@ -8652,54 +8664,54 @@
       <c r="W154" s="12"/>
     </row>
     <row r="155" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B155" s="25"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="34" t="s">
+      <c r="B155" s="46"/>
+      <c r="C155" s="46"/>
+      <c r="D155" s="46"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T155" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U155" s="7"/>
       <c r="V155" s="12">
@@ -8710,13 +8722,13 @@
       </c>
     </row>
     <row r="156" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B156" s="25"/>
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="32">
+      <c r="B156" s="46"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="29">
         <v>7335</v>
       </c>
-      <c r="F156" s="33" t="s">
+      <c r="F156" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G156" s="7">
@@ -8766,11 +8778,11 @@
       <c r="W156" s="12"/>
     </row>
     <row r="157" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B157" s="25"/>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="33" t="s">
+      <c r="B157" s="46"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G157" s="7">
@@ -8820,11 +8832,11 @@
       <c r="W157" s="12"/>
     </row>
     <row r="158" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B158" s="25"/>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="34" t="s">
+      <c r="B158" s="46"/>
+      <c r="C158" s="46"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G158" s="7" t="s">
@@ -8878,13 +8890,13 @@
       </c>
     </row>
     <row r="159" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B159" s="25"/>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="32">
+      <c r="B159" s="46"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="29">
         <v>7336</v>
       </c>
-      <c r="F159" s="33" t="s">
+      <c r="F159" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="7">
@@ -8934,11 +8946,11 @@
       <c r="W159" s="12"/>
     </row>
     <row r="160" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B160" s="25"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="33" t="s">
+      <c r="B160" s="46"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G160" s="7">
@@ -8988,54 +9000,54 @@
       <c r="W160" s="12"/>
     </row>
     <row r="161" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B161" s="25"/>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="34" t="s">
+      <c r="B161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T161" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U161" s="7"/>
       <c r="V161" s="12">
@@ -9046,13 +9058,13 @@
       </c>
     </row>
     <row r="162" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B162" s="25"/>
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="32">
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="29">
         <v>7337</v>
       </c>
-      <c r="F162" s="33" t="s">
+      <c r="F162" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G162" s="7">
@@ -9102,11 +9114,11 @@
       <c r="W162" s="12"/>
     </row>
     <row r="163" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B163" s="25"/>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="32"/>
-      <c r="F163" s="33" t="s">
+      <c r="B163" s="46"/>
+      <c r="C163" s="46"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G163" s="7">
@@ -9156,11 +9168,11 @@
       <c r="W163" s="12"/>
     </row>
     <row r="164" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B164" s="25"/>
-      <c r="C164" s="25"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="34" t="s">
+      <c r="B164" s="46"/>
+      <c r="C164" s="46"/>
+      <c r="D164" s="46"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G164" s="7" t="s">
@@ -9214,13 +9226,13 @@
       </c>
     </row>
     <row r="165" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B165" s="25"/>
-      <c r="C165" s="25"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="32">
+      <c r="B165" s="46"/>
+      <c r="C165" s="46"/>
+      <c r="D165" s="46"/>
+      <c r="E165" s="29">
         <v>7338</v>
       </c>
-      <c r="F165" s="33" t="s">
+      <c r="F165" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G165" s="7">
@@ -9270,11 +9282,11 @@
       <c r="W165" s="12"/>
     </row>
     <row r="166" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B166" s="25"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="33" t="s">
+      <c r="B166" s="46"/>
+      <c r="C166" s="46"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G166" s="7">
@@ -9324,54 +9336,54 @@
       <c r="W166" s="12"/>
     </row>
     <row r="167" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B167" s="25"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="34" t="s">
+      <c r="B167" s="46"/>
+      <c r="C167" s="46"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T167" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U167" s="7"/>
       <c r="V167" s="12">
@@ -9382,13 +9394,13 @@
       </c>
     </row>
     <row r="168" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B168" s="25"/>
-      <c r="C168" s="25"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="32">
+      <c r="B168" s="46"/>
+      <c r="C168" s="46"/>
+      <c r="D168" s="46"/>
+      <c r="E168" s="29">
         <v>7339</v>
       </c>
-      <c r="F168" s="33" t="s">
+      <c r="F168" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G168" s="7">
@@ -9438,11 +9450,11 @@
       <c r="W168" s="12"/>
     </row>
     <row r="169" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B169" s="25"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="33" t="s">
+      <c r="B169" s="46"/>
+      <c r="C169" s="46"/>
+      <c r="D169" s="46"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G169" s="7">
@@ -9492,11 +9504,11 @@
       <c r="W169" s="12"/>
     </row>
     <row r="170" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="34" t="s">
+      <c r="B170" s="46"/>
+      <c r="C170" s="46"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G170" s="7" t="s">
@@ -9550,13 +9562,13 @@
       </c>
     </row>
     <row r="171" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B171" s="25"/>
-      <c r="C171" s="25"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="32">
+      <c r="B171" s="46"/>
+      <c r="C171" s="46"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="29">
         <v>7340</v>
       </c>
-      <c r="F171" s="33" t="s">
+      <c r="F171" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G171" s="7">
@@ -9606,11 +9618,11 @@
       <c r="W171" s="12"/>
     </row>
     <row r="172" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="33" t="s">
+      <c r="B172" s="46"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G172" s="7">
@@ -9660,23 +9672,23 @@
       <c r="W172" s="12"/>
     </row>
     <row r="173" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B173" s="25"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="47"/>
+      <c r="D173" s="47"/>
       <c r="E173" s="4"/>
       <c r="F173" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G173" s="35" t="s">
+      <c r="G173" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H173" s="35" t="s">
+      <c r="H173" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I173" s="35" t="s">
+      <c r="I173" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J173" s="35" t="s">
+      <c r="J173" s="32" t="s">
         <v>30</v>
       </c>
       <c r="K173" s="22" t="s">
@@ -9694,41 +9706,41 @@
       <c r="O173" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="P173" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q173" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="R173" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="S173" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="T173" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="U173" s="35"/>
-      <c r="V173" s="38">
+      <c r="P173" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q173" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R173" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S173" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T173" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="U173" s="32"/>
+      <c r="V173" s="35">
         <v>1316.7299964485201</v>
       </c>
-      <c r="W173" s="38" t="s">
+      <c r="W173" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="174" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B174" s="25"/>
-      <c r="C174" s="25" t="s">
+      <c r="B174" s="46"/>
+      <c r="C174" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D174" s="25" t="s">
+      <c r="D174" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E174" s="32">
+      <c r="E174" s="29">
         <v>7321</v>
       </c>
-      <c r="F174" s="33" t="s">
+      <c r="F174" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G174" s="7">
@@ -9778,11 +9790,11 @@
       <c r="W174" s="12"/>
     </row>
     <row r="175" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="33" t="s">
+      <c r="B175" s="46"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="29"/>
+      <c r="F175" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G175" s="7">
@@ -9832,11 +9844,11 @@
       <c r="W175" s="12"/>
     </row>
     <row r="176" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B176" s="25"/>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="34" t="s">
+      <c r="B176" s="46"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="46"/>
+      <c r="E176" s="29"/>
+      <c r="F176" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G176" s="7" t="s">
@@ -9890,13 +9902,13 @@
       </c>
     </row>
     <row r="177" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="32">
+      <c r="B177" s="46"/>
+      <c r="C177" s="46"/>
+      <c r="D177" s="46"/>
+      <c r="E177" s="29">
         <v>7322</v>
       </c>
-      <c r="F177" s="33" t="s">
+      <c r="F177" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G177" s="7">
@@ -9946,11 +9958,11 @@
       <c r="W177" s="12"/>
     </row>
     <row r="178" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B178" s="25"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="33" t="s">
+      <c r="B178" s="46"/>
+      <c r="C178" s="46"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="29"/>
+      <c r="F178" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G178" s="7">
@@ -10000,11 +10012,11 @@
       <c r="W178" s="12"/>
     </row>
     <row r="179" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B179" s="25"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="34" t="s">
+      <c r="B179" s="46"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G179" s="7" t="s">
@@ -10058,13 +10070,13 @@
       </c>
     </row>
     <row r="180" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B180" s="25"/>
-      <c r="C180" s="25"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="32">
+      <c r="B180" s="46"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="46"/>
+      <c r="E180" s="29">
         <v>7323</v>
       </c>
-      <c r="F180" s="33" t="s">
+      <c r="F180" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G180" s="7">
@@ -10114,11 +10126,11 @@
       <c r="W180" s="12"/>
     </row>
     <row r="181" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B181" s="25"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="33" t="s">
+      <c r="B181" s="46"/>
+      <c r="C181" s="46"/>
+      <c r="D181" s="46"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G181" s="7">
@@ -10168,11 +10180,11 @@
       <c r="W181" s="12"/>
     </row>
     <row r="182" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B182" s="25"/>
-      <c r="C182" s="25"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="34" t="s">
+      <c r="B182" s="46"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G182" s="7" t="s">
@@ -10226,13 +10238,13 @@
       </c>
     </row>
     <row r="183" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B183" s="25"/>
-      <c r="C183" s="25"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="32">
+      <c r="B183" s="46"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="46"/>
+      <c r="E183" s="29">
         <v>7324</v>
       </c>
-      <c r="F183" s="33" t="s">
+      <c r="F183" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G183" s="7">
@@ -10282,11 +10294,11 @@
       <c r="W183" s="12"/>
     </row>
     <row r="184" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B184" s="25"/>
-      <c r="C184" s="25"/>
-      <c r="D184" s="25"/>
-      <c r="E184" s="32"/>
-      <c r="F184" s="33" t="s">
+      <c r="B184" s="46"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="46"/>
+      <c r="E184" s="29"/>
+      <c r="F184" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G184" s="7">
@@ -10336,11 +10348,11 @@
       <c r="W184" s="12"/>
     </row>
     <row r="185" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B185" s="25"/>
-      <c r="C185" s="25"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="32"/>
-      <c r="F185" s="34" t="s">
+      <c r="B185" s="46"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="46"/>
+      <c r="E185" s="29"/>
+      <c r="F185" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G185" s="7" t="s">
@@ -10394,13 +10406,13 @@
       </c>
     </row>
     <row r="186" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="32">
+      <c r="B186" s="46"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="46"/>
+      <c r="E186" s="29">
         <v>7325</v>
       </c>
-      <c r="F186" s="33" t="s">
+      <c r="F186" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G186" s="7">
@@ -10450,11 +10462,11 @@
       <c r="W186" s="12"/>
     </row>
     <row r="187" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B187" s="25"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="32"/>
-      <c r="F187" s="33" t="s">
+      <c r="B187" s="46"/>
+      <c r="C187" s="46"/>
+      <c r="D187" s="46"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G187" s="7">
@@ -10504,11 +10516,11 @@
       <c r="W187" s="12"/>
     </row>
     <row r="188" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B188" s="25"/>
-      <c r="C188" s="25"/>
-      <c r="D188" s="25"/>
-      <c r="E188" s="32"/>
-      <c r="F188" s="34" t="s">
+      <c r="B188" s="46"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="46"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G188" s="7" t="s">
@@ -10562,13 +10574,13 @@
       </c>
     </row>
     <row r="189" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B189" s="25"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="25"/>
-      <c r="E189" s="32">
+      <c r="B189" s="46"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="46"/>
+      <c r="E189" s="29">
         <v>7326</v>
       </c>
-      <c r="F189" s="33" t="s">
+      <c r="F189" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G189" s="7">
@@ -10618,11 +10630,11 @@
       <c r="W189" s="12"/>
     </row>
     <row r="190" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B190" s="25"/>
-      <c r="C190" s="25"/>
-      <c r="D190" s="25"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="33" t="s">
+      <c r="B190" s="46"/>
+      <c r="C190" s="46"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G190" s="7">
@@ -10672,11 +10684,11 @@
       <c r="W190" s="12"/>
     </row>
     <row r="191" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B191" s="25"/>
-      <c r="C191" s="25"/>
-      <c r="D191" s="25"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="34" t="s">
+      <c r="B191" s="46"/>
+      <c r="C191" s="46"/>
+      <c r="D191" s="46"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G191" s="7" t="s">
@@ -10730,13 +10742,13 @@
       </c>
     </row>
     <row r="192" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B192" s="25"/>
-      <c r="C192" s="25"/>
-      <c r="D192" s="25"/>
-      <c r="E192" s="32">
+      <c r="B192" s="46"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="46"/>
+      <c r="E192" s="29">
         <v>7327</v>
       </c>
-      <c r="F192" s="33" t="s">
+      <c r="F192" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G192" s="7">
@@ -10786,11 +10798,11 @@
       <c r="W192" s="12"/>
     </row>
     <row r="193" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B193" s="25"/>
-      <c r="C193" s="25"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="33" t="s">
+      <c r="B193" s="46"/>
+      <c r="C193" s="46"/>
+      <c r="D193" s="46"/>
+      <c r="E193" s="29"/>
+      <c r="F193" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G193" s="7">
@@ -10840,11 +10852,11 @@
       <c r="W193" s="12"/>
     </row>
     <row r="194" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B194" s="25"/>
-      <c r="C194" s="25"/>
-      <c r="D194" s="25"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="34" t="s">
+      <c r="B194" s="46"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="46"/>
+      <c r="E194" s="29"/>
+      <c r="F194" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G194" s="7" t="s">
@@ -10898,13 +10910,13 @@
       </c>
     </row>
     <row r="195" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B195" s="25"/>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="32">
+      <c r="B195" s="46"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="46"/>
+      <c r="E195" s="29">
         <v>7328</v>
       </c>
-      <c r="F195" s="33" t="s">
+      <c r="F195" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G195" s="7">
@@ -10954,11 +10966,11 @@
       <c r="W195" s="12"/>
     </row>
     <row r="196" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="33" t="s">
+      <c r="B196" s="46"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="46"/>
+      <c r="E196" s="29"/>
+      <c r="F196" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G196" s="7">
@@ -11008,11 +11020,11 @@
       <c r="W196" s="12"/>
     </row>
     <row r="197" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B197" s="25"/>
-      <c r="C197" s="25"/>
-      <c r="D197" s="25"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="34" t="s">
+      <c r="B197" s="46"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G197" s="7" t="s">
@@ -11066,13 +11078,13 @@
       </c>
     </row>
     <row r="198" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B198" s="25"/>
-      <c r="C198" s="25"/>
-      <c r="D198" s="25"/>
-      <c r="E198" s="32">
+      <c r="B198" s="46"/>
+      <c r="C198" s="46"/>
+      <c r="D198" s="46"/>
+      <c r="E198" s="29">
         <v>7329</v>
       </c>
-      <c r="F198" s="33" t="s">
+      <c r="F198" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G198" s="7">
@@ -11122,11 +11134,11 @@
       <c r="W198" s="12"/>
     </row>
     <row r="199" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B199" s="25"/>
-      <c r="C199" s="25"/>
-      <c r="D199" s="25"/>
-      <c r="E199" s="32"/>
-      <c r="F199" s="33" t="s">
+      <c r="B199" s="46"/>
+      <c r="C199" s="46"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="29"/>
+      <c r="F199" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G199" s="7">
@@ -11176,11 +11188,11 @@
       <c r="W199" s="12"/>
     </row>
     <row r="200" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B200" s="25"/>
-      <c r="C200" s="25"/>
-      <c r="D200" s="25"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="34" t="s">
+      <c r="B200" s="46"/>
+      <c r="C200" s="46"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="29"/>
+      <c r="F200" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G200" s="7" t="s">
@@ -11234,13 +11246,13 @@
       </c>
     </row>
     <row r="201" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B201" s="25"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="32">
+      <c r="B201" s="46"/>
+      <c r="C201" s="46"/>
+      <c r="D201" s="46"/>
+      <c r="E201" s="29">
         <v>7330</v>
       </c>
-      <c r="F201" s="33" t="s">
+      <c r="F201" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G201" s="7">
@@ -11290,11 +11302,11 @@
       <c r="W201" s="12"/>
     </row>
     <row r="202" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B202" s="25"/>
-      <c r="C202" s="25"/>
-      <c r="D202" s="25"/>
-      <c r="E202" s="32"/>
-      <c r="F202" s="33" t="s">
+      <c r="B202" s="46"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="46"/>
+      <c r="E202" s="29"/>
+      <c r="F202" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G202" s="7">
@@ -11344,11 +11356,11 @@
       <c r="W202" s="12"/>
     </row>
     <row r="203" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B203" s="25"/>
-      <c r="C203" s="25"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="32"/>
-      <c r="F203" s="34" t="s">
+      <c r="B203" s="46"/>
+      <c r="C203" s="46"/>
+      <c r="D203" s="46"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G203" s="7" t="s">
@@ -11402,15 +11414,15 @@
       </c>
     </row>
     <row r="204" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B204" s="25"/>
-      <c r="C204" s="25" t="s">
+      <c r="B204" s="46"/>
+      <c r="C204" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D204" s="25"/>
-      <c r="E204" s="32">
+      <c r="D204" s="46"/>
+      <c r="E204" s="29">
         <v>7341</v>
       </c>
-      <c r="F204" s="33" t="s">
+      <c r="F204" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G204" s="7">
@@ -11460,11 +11472,11 @@
       <c r="W204" s="12"/>
     </row>
     <row r="205" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B205" s="25"/>
-      <c r="C205" s="25"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="39"/>
-      <c r="F205" s="33" t="s">
+      <c r="B205" s="46"/>
+      <c r="C205" s="46"/>
+      <c r="D205" s="46"/>
+      <c r="E205" s="36"/>
+      <c r="F205" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G205" s="7">
@@ -11514,11 +11526,11 @@
       <c r="W205" s="12"/>
     </row>
     <row r="206" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="39"/>
-      <c r="F206" s="34" t="s">
+      <c r="B206" s="46"/>
+      <c r="C206" s="46"/>
+      <c r="D206" s="46"/>
+      <c r="E206" s="36"/>
+      <c r="F206" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G206" s="7" t="s">
@@ -11572,13 +11584,13 @@
       </c>
     </row>
     <row r="207" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="25"/>
+      <c r="B207" s="46"/>
+      <c r="C207" s="46"/>
+      <c r="D207" s="46"/>
       <c r="E207" s="6">
         <v>7342</v>
       </c>
-      <c r="F207" s="33" t="s">
+      <c r="F207" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G207" s="7">
@@ -11628,11 +11640,11 @@
       <c r="W207" s="9"/>
     </row>
     <row r="208" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25"/>
+      <c r="B208" s="46"/>
+      <c r="C208" s="46"/>
+      <c r="D208" s="46"/>
       <c r="E208" s="6"/>
-      <c r="F208" s="33" t="s">
+      <c r="F208" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G208" s="7">
@@ -11682,11 +11694,11 @@
       <c r="W208" s="9"/>
     </row>
     <row r="209" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B209" s="25"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="25"/>
+      <c r="B209" s="46"/>
+      <c r="C209" s="46"/>
+      <c r="D209" s="46"/>
       <c r="E209" s="6"/>
-      <c r="F209" s="34" t="s">
+      <c r="F209" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G209" s="7" t="s">
@@ -11740,13 +11752,13 @@
       </c>
     </row>
     <row r="210" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B210" s="25"/>
-      <c r="C210" s="25"/>
-      <c r="D210" s="25"/>
+      <c r="B210" s="46"/>
+      <c r="C210" s="46"/>
+      <c r="D210" s="46"/>
       <c r="E210" s="6">
         <v>7343</v>
       </c>
-      <c r="F210" s="33" t="s">
+      <c r="F210" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G210" s="7">
@@ -11796,11 +11808,11 @@
       <c r="W210" s="9"/>
     </row>
     <row r="211" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
+      <c r="B211" s="46"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="46"/>
       <c r="E211" s="6"/>
-      <c r="F211" s="33" t="s">
+      <c r="F211" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G211" s="7">
@@ -11850,11 +11862,11 @@
       <c r="W211" s="9"/>
     </row>
     <row r="212" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B212" s="25"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
+      <c r="B212" s="46"/>
+      <c r="C212" s="46"/>
+      <c r="D212" s="46"/>
       <c r="E212" s="6"/>
-      <c r="F212" s="34" t="s">
+      <c r="F212" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G212" s="7" t="s">
@@ -11908,13 +11920,13 @@
       </c>
     </row>
     <row r="213" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B213" s="25"/>
-      <c r="C213" s="25"/>
-      <c r="D213" s="25"/>
+      <c r="B213" s="46"/>
+      <c r="C213" s="46"/>
+      <c r="D213" s="46"/>
       <c r="E213" s="6">
         <v>7344</v>
       </c>
-      <c r="F213" s="33" t="s">
+      <c r="F213" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G213" s="7">
@@ -11964,11 +11976,11 @@
       <c r="W213" s="9"/>
     </row>
     <row r="214" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B214" s="25"/>
-      <c r="C214" s="25"/>
-      <c r="D214" s="25"/>
+      <c r="B214" s="46"/>
+      <c r="C214" s="46"/>
+      <c r="D214" s="46"/>
       <c r="E214" s="6"/>
-      <c r="F214" s="33" t="s">
+      <c r="F214" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G214" s="7">
@@ -12018,11 +12030,11 @@
       <c r="W214" s="9"/>
     </row>
     <row r="215" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B215" s="25"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="25"/>
+      <c r="B215" s="46"/>
+      <c r="C215" s="46"/>
+      <c r="D215" s="46"/>
       <c r="E215" s="6"/>
-      <c r="F215" s="34" t="s">
+      <c r="F215" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G215" s="7" t="s">
@@ -12076,13 +12088,13 @@
       </c>
     </row>
     <row r="216" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B216" s="25"/>
-      <c r="C216" s="25"/>
-      <c r="D216" s="25"/>
+      <c r="B216" s="46"/>
+      <c r="C216" s="46"/>
+      <c r="D216" s="46"/>
       <c r="E216" s="6">
         <v>7345</v>
       </c>
-      <c r="F216" s="33" t="s">
+      <c r="F216" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G216" s="7">
@@ -12132,11 +12144,11 @@
       <c r="W216" s="9"/>
     </row>
     <row r="217" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B217" s="25"/>
-      <c r="C217" s="25"/>
-      <c r="D217" s="25"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="46"/>
+      <c r="D217" s="46"/>
       <c r="E217" s="6"/>
-      <c r="F217" s="33" t="s">
+      <c r="F217" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G217" s="7">
@@ -12186,11 +12198,11 @@
       <c r="W217" s="9"/>
     </row>
     <row r="218" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B218" s="25"/>
-      <c r="C218" s="25"/>
-      <c r="D218" s="25"/>
+      <c r="B218" s="46"/>
+      <c r="C218" s="46"/>
+      <c r="D218" s="46"/>
       <c r="E218" s="6"/>
-      <c r="F218" s="34" t="s">
+      <c r="F218" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G218" s="7" t="s">
@@ -12244,13 +12256,13 @@
       </c>
     </row>
     <row r="219" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B219" s="25"/>
-      <c r="C219" s="25"/>
-      <c r="D219" s="25"/>
+      <c r="B219" s="46"/>
+      <c r="C219" s="46"/>
+      <c r="D219" s="46"/>
       <c r="E219" s="6">
         <v>7346</v>
       </c>
-      <c r="F219" s="33" t="s">
+      <c r="F219" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G219" s="7">
@@ -12300,11 +12312,11 @@
       <c r="W219" s="9"/>
     </row>
     <row r="220" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B220" s="25"/>
-      <c r="C220" s="25"/>
-      <c r="D220" s="25"/>
+      <c r="B220" s="46"/>
+      <c r="C220" s="46"/>
+      <c r="D220" s="46"/>
       <c r="E220" s="6"/>
-      <c r="F220" s="33" t="s">
+      <c r="F220" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G220" s="7">
@@ -12354,11 +12366,11 @@
       <c r="W220" s="9"/>
     </row>
     <row r="221" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B221" s="25"/>
-      <c r="C221" s="25"/>
-      <c r="D221" s="25"/>
+      <c r="B221" s="46"/>
+      <c r="C221" s="46"/>
+      <c r="D221" s="46"/>
       <c r="E221" s="6"/>
-      <c r="F221" s="34" t="s">
+      <c r="F221" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G221" s="7" t="s">
@@ -12412,13 +12424,13 @@
       </c>
     </row>
     <row r="222" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B222" s="25"/>
-      <c r="C222" s="25"/>
-      <c r="D222" s="25"/>
+      <c r="B222" s="46"/>
+      <c r="C222" s="46"/>
+      <c r="D222" s="46"/>
       <c r="E222" s="6">
         <v>7347</v>
       </c>
-      <c r="F222" s="33" t="s">
+      <c r="F222" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G222" s="7">
@@ -12468,11 +12480,11 @@
       <c r="W222" s="9"/>
     </row>
     <row r="223" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B223" s="25"/>
-      <c r="C223" s="25"/>
-      <c r="D223" s="25"/>
+      <c r="B223" s="46"/>
+      <c r="C223" s="46"/>
+      <c r="D223" s="46"/>
       <c r="E223" s="6"/>
-      <c r="F223" s="33" t="s">
+      <c r="F223" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G223" s="7">
@@ -12522,11 +12534,11 @@
       <c r="W223" s="9"/>
     </row>
     <row r="224" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B224" s="25"/>
-      <c r="C224" s="25"/>
-      <c r="D224" s="25"/>
+      <c r="B224" s="46"/>
+      <c r="C224" s="46"/>
+      <c r="D224" s="46"/>
       <c r="E224" s="6"/>
-      <c r="F224" s="34" t="s">
+      <c r="F224" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G224" s="7" t="s">
@@ -12580,13 +12592,13 @@
       </c>
     </row>
     <row r="225" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B225" s="25"/>
-      <c r="C225" s="25"/>
-      <c r="D225" s="25"/>
+      <c r="B225" s="46"/>
+      <c r="C225" s="46"/>
+      <c r="D225" s="46"/>
       <c r="E225" s="6">
         <v>7348</v>
       </c>
-      <c r="F225" s="33" t="s">
+      <c r="F225" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G225" s="7">
@@ -12636,11 +12648,11 @@
       <c r="W225" s="9"/>
     </row>
     <row r="226" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B226" s="25"/>
-      <c r="C226" s="25"/>
-      <c r="D226" s="25"/>
+      <c r="B226" s="46"/>
+      <c r="C226" s="46"/>
+      <c r="D226" s="46"/>
       <c r="E226" s="6"/>
-      <c r="F226" s="33" t="s">
+      <c r="F226" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G226" s="7">
@@ -12690,11 +12702,11 @@
       <c r="W226" s="9"/>
     </row>
     <row r="227" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B227" s="25"/>
-      <c r="C227" s="25"/>
-      <c r="D227" s="25"/>
+      <c r="B227" s="46"/>
+      <c r="C227" s="46"/>
+      <c r="D227" s="46"/>
       <c r="E227" s="6"/>
-      <c r="F227" s="34" t="s">
+      <c r="F227" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G227" s="7" t="s">
@@ -12748,13 +12760,13 @@
       </c>
     </row>
     <row r="228" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B228" s="25"/>
-      <c r="C228" s="25"/>
-      <c r="D228" s="25"/>
+      <c r="B228" s="46"/>
+      <c r="C228" s="46"/>
+      <c r="D228" s="46"/>
       <c r="E228" s="6">
         <v>7349</v>
       </c>
-      <c r="F228" s="33" t="s">
+      <c r="F228" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G228" s="7">
@@ -12804,11 +12816,11 @@
       <c r="W228" s="9"/>
     </row>
     <row r="229" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B229" s="25"/>
-      <c r="C229" s="25"/>
-      <c r="D229" s="25"/>
+      <c r="B229" s="46"/>
+      <c r="C229" s="46"/>
+      <c r="D229" s="46"/>
       <c r="E229" s="6"/>
-      <c r="F229" s="33" t="s">
+      <c r="F229" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G229" s="7">
@@ -12858,11 +12870,11 @@
       <c r="W229" s="9"/>
     </row>
     <row r="230" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B230" s="25"/>
-      <c r="C230" s="25"/>
-      <c r="D230" s="25"/>
+      <c r="B230" s="46"/>
+      <c r="C230" s="46"/>
+      <c r="D230" s="46"/>
       <c r="E230" s="6"/>
-      <c r="F230" s="34" t="s">
+      <c r="F230" s="31" t="s">
         <v>29</v>
       </c>
       <c r="G230" s="7" t="s">
@@ -12916,13 +12928,13 @@
       </c>
     </row>
     <row r="231" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B231" s="25"/>
-      <c r="C231" s="25"/>
-      <c r="D231" s="25"/>
+      <c r="B231" s="46"/>
+      <c r="C231" s="46"/>
+      <c r="D231" s="46"/>
       <c r="E231" s="6">
         <v>7350</v>
       </c>
-      <c r="F231" s="33" t="s">
+      <c r="F231" s="30" t="s">
         <v>4</v>
       </c>
       <c r="G231" s="7">
@@ -12972,11 +12984,11 @@
       <c r="W231" s="9"/>
     </row>
     <row r="232" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B232" s="25"/>
-      <c r="C232" s="25"/>
-      <c r="D232" s="25"/>
+      <c r="B232" s="46"/>
+      <c r="C232" s="46"/>
+      <c r="D232" s="46"/>
       <c r="E232" s="6"/>
-      <c r="F232" s="33" t="s">
+      <c r="F232" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G232" s="7">
@@ -13026,60 +13038,60 @@
       <c r="W232" s="9"/>
     </row>
     <row r="233" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
-      <c r="E233" s="40"/>
+      <c r="B233" s="47"/>
+      <c r="C233" s="47"/>
+      <c r="D233" s="47"/>
+      <c r="E233" s="37"/>
       <c r="F233" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G233" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H233" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="I233" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J233" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="K233" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="L233" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="M233" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="N233" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="O233" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="P233" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q233" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="R233" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="S233" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="T233" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="U233" s="35"/>
-      <c r="V233" s="38">
+      <c r="G233" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H233" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I233" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J233" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K233" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L233" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M233" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N233" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O233" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P233" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q233" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="R233" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S233" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T233" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="U233" s="32"/>
+      <c r="V233" s="35">
         <v>1288.8763823644599</v>
       </c>
-      <c r="W233" s="38" t="s">
+      <c r="W233" s="35" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13089,54 +13101,54 @@
       </c>
     </row>
     <row r="236" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B236" s="47" t="s">
+      <c r="B236" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C236" s="47"/>
-      <c r="D236" s="47"/>
-      <c r="E236" s="47"/>
-      <c r="F236" s="47"/>
-      <c r="G236" s="47"/>
-      <c r="H236" s="47"/>
-      <c r="I236" s="47"/>
-      <c r="J236" s="47"/>
-      <c r="K236" s="47"/>
-      <c r="L236" s="47"/>
-      <c r="M236" s="47"/>
-      <c r="N236" s="47"/>
-      <c r="O236" s="47"/>
-      <c r="P236" s="47"/>
-      <c r="Q236" s="47"/>
-      <c r="R236" s="47"/>
-      <c r="S236" s="47"/>
-      <c r="T236" s="47"/>
-      <c r="U236" s="47"/>
-      <c r="V236" s="47"/>
-      <c r="W236" s="47"/>
+      <c r="C236" s="44"/>
+      <c r="D236" s="44"/>
+      <c r="E236" s="44"/>
+      <c r="F236" s="44"/>
+      <c r="G236" s="44"/>
+      <c r="H236" s="44"/>
+      <c r="I236" s="44"/>
+      <c r="J236" s="44"/>
+      <c r="K236" s="44"/>
+      <c r="L236" s="44"/>
+      <c r="M236" s="44"/>
+      <c r="N236" s="44"/>
+      <c r="O236" s="44"/>
+      <c r="P236" s="44"/>
+      <c r="Q236" s="44"/>
+      <c r="R236" s="44"/>
+      <c r="S236" s="44"/>
+      <c r="T236" s="44"/>
+      <c r="U236" s="44"/>
+      <c r="V236" s="44"/>
+      <c r="W236" s="44"/>
     </row>
     <row r="237" spans="2:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="47"/>
-      <c r="C237" s="47"/>
-      <c r="D237" s="47"/>
-      <c r="E237" s="47"/>
-      <c r="F237" s="47"/>
-      <c r="G237" s="47"/>
-      <c r="H237" s="47"/>
-      <c r="I237" s="47"/>
-      <c r="J237" s="47"/>
-      <c r="K237" s="47"/>
-      <c r="L237" s="47"/>
-      <c r="M237" s="47"/>
-      <c r="N237" s="47"/>
-      <c r="O237" s="47"/>
-      <c r="P237" s="47"/>
-      <c r="Q237" s="47"/>
-      <c r="R237" s="47"/>
-      <c r="S237" s="47"/>
-      <c r="T237" s="47"/>
-      <c r="U237" s="47"/>
-      <c r="V237" s="47"/>
-      <c r="W237" s="47"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="44"/>
+      <c r="D237" s="44"/>
+      <c r="E237" s="44"/>
+      <c r="F237" s="44"/>
+      <c r="G237" s="44"/>
+      <c r="H237" s="44"/>
+      <c r="I237" s="44"/>
+      <c r="J237" s="44"/>
+      <c r="K237" s="44"/>
+      <c r="L237" s="44"/>
+      <c r="M237" s="44"/>
+      <c r="N237" s="44"/>
+      <c r="O237" s="44"/>
+      <c r="P237" s="44"/>
+      <c r="Q237" s="44"/>
+      <c r="R237" s="44"/>
+      <c r="S237" s="44"/>
+      <c r="T237" s="44"/>
+      <c r="U237" s="44"/>
+      <c r="V237" s="44"/>
+      <c r="W237" s="44"/>
     </row>
     <row r="239" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
@@ -13150,6 +13162,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C87:C113"/>
     <mergeCell ref="F1:T1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="B236:W237"/>
@@ -13166,7 +13179,6 @@
     <mergeCell ref="C27:C50"/>
     <mergeCell ref="D51:D113"/>
     <mergeCell ref="C51:C86"/>
-    <mergeCell ref="C87:C113"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:U233">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/Appendix_individualsCtvaluesandevaluation.xlsx
+++ b/Appendix_individualsCtvaluesandevaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Surfdrive\Models_and_Scripts\TransmissionExperiment\TransmissionEstimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D222DD-3895-4795-A605-FE9C24B4926C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D3405-7B91-4F89-9AD8-B60ADA5F1AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,119 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -835,8 +947,8 @@
   </sheetPr>
   <dimension ref="B1:W240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167:T167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13181,16 +13293,16 @@
     <mergeCell ref="C51:C86"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:U233">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"NI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
